--- a/Schematic and Layout/BOM and testsV2.xlsx
+++ b/Schematic and Layout/BOM and testsV2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Part     Value          Package       Library           Position (inch)       Orientation</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>Total cost per set of boards</t>
+  </si>
+  <si>
+    <t>Cost of 2 ESPs + gas sensor</t>
+  </si>
+  <si>
+    <t>As a % of total cost</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +433,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FE2ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -642,12 +654,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -655,7 +668,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -691,34 +703,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -729,15 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,24 +726,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,31 +738,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -811,9 +751,43 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,39 +797,85 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8FE2ED"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1216,19 +1236,19 @@
   <dimension ref="A1:P140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="74.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="120.7109375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="120.7109375" style="35" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="51" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1244,936 +1264,947 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:16" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>110</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="64">
         <v>1000</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="47">
         <f>F4/D4</f>
         <v>0.18386000000000002</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="66">
         <v>183.86</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="48">
         <v>3</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="66">
         <f>E4*G4</f>
         <v>0.55158000000000007</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f>SUM(F4:F61)</f>
         <v>7355.5599999999995</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <f>SUM(H4:H61)</f>
         <v>26.671370000000003</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <f>132.1/10</f>
         <v>13.209999999999999</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="46">
         <f>K4+L4</f>
         <v>39.881370000000004</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="79">
+        <f>15.99+4.95</f>
+        <v>20.94</v>
+      </c>
+      <c r="P4" s="80">
+        <f>O4/M4</f>
+        <v>0.52505718835636783</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="66" t="e">
+      <c r="C5" s="73"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="47" t="e">
         <f t="shared" ref="E5:E61" si="0">F5/D5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="66" t="e">
+      <c r="C6" s="73"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="73"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>1000</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="41">
         <f t="shared" si="0"/>
         <v>2.997E-2</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="43">
         <v>29.97</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="74">
-        <f t="shared" ref="H5:H61" si="1">E7*G7</f>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7:H61" si="1">E7*G7</f>
         <v>2.997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="64">
         <v>1000</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="47">
         <f t="shared" si="0"/>
         <v>8.7650000000000006E-2</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="78">
         <v>87.65</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="48">
         <v>2</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="78">
         <f t="shared" si="1"/>
         <v>0.17530000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="66" t="e">
+      <c r="C9" s="73"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="75"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="52">
         <v>1000</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="55">
         <f t="shared" si="0"/>
         <v>6.0229999999999999E-2</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="47">
         <v>60.23</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="58">
         <v>6</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="47">
         <f t="shared" si="1"/>
         <v>0.36137999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="66">
+      <c r="C11" s="50"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="66">
+      <c r="C12" s="50"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="66">
+      <c r="C13" s="50"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="66">
+      <c r="C14" s="50"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="66">
+      <c r="C15" s="51"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="67">
         <v>1000</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="47">
         <f t="shared" si="0"/>
         <v>2.7149999999999997E-2</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="47">
         <v>27.15</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="61">
         <v>2</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="47">
         <f t="shared" si="1"/>
         <v>5.4299999999999994E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="66" t="e">
+      <c r="C17" s="71"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="66"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="67">
         <v>1000</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="47">
         <f t="shared" si="0"/>
         <v>1.7329999999999998E-2</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="47">
         <v>17.329999999999998</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="61">
         <v>2</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="47">
         <f t="shared" si="1"/>
         <v>3.4659999999999996E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="66" t="e">
+      <c r="C19" s="71"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="66"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="64">
         <v>500</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="47">
         <f t="shared" si="0"/>
         <v>0.10026</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="66">
         <v>50.13</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="48">
         <v>4</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="66">
         <f t="shared" si="1"/>
         <v>0.40104000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="66" t="e">
+      <c r="C21" s="73"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="73"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="66" t="e">
+      <c r="C22" s="73"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="73"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="66" t="e">
+      <c r="C23" s="73"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="73"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>1000</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="41">
         <f t="shared" si="0"/>
         <v>2.9850000000000002E-2</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="44">
         <v>29.85</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="30">
         <v>1</v>
       </c>
-      <c r="H24" s="76">
+      <c r="H24" s="44">
         <f t="shared" si="1"/>
         <v>2.9850000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>2500</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="42">
         <f t="shared" si="0"/>
         <v>3.8439999999999998E-3</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="45">
         <v>9.61</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="30">
         <v>1</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="45">
         <f t="shared" si="1"/>
         <v>3.8439999999999998E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="75"/>
+      <c r="B26" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="31">
         <v>2500</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="42">
         <f t="shared" si="0"/>
         <v>5.0600000000000003E-3</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="45">
         <v>12.65</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="32">
         <v>1</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="45">
         <f t="shared" si="1"/>
         <v>5.0600000000000003E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="62">
         <v>2500</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="69">
         <f t="shared" si="0"/>
         <v>3.8439999999999998E-3</v>
       </c>
-      <c r="F27" s="78">
+      <c r="F27" s="68">
         <v>9.61</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="61">
         <v>2</v>
       </c>
-      <c r="H27" s="78">
+      <c r="H27" s="68">
         <f t="shared" si="1"/>
         <v>7.6879999999999995E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="75"/>
+      <c r="B28" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="72" t="e">
+      <c r="C28" s="70"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="78"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="68"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="75"/>
+      <c r="B29" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="62">
         <v>2500</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="69">
         <f t="shared" si="0"/>
         <v>5.0600000000000003E-3</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="68">
         <v>12.65</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="61">
         <v>11</v>
       </c>
-      <c r="H29" s="78">
+      <c r="H29" s="68">
         <f t="shared" si="1"/>
         <v>5.5660000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="32" t="s">
+      <c r="A30" s="75"/>
+      <c r="B30" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="72" t="e">
+      <c r="C30" s="70"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="78"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="68"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="75"/>
+      <c r="B31" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="72" t="e">
+      <c r="C31" s="70"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="78"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="75"/>
+      <c r="B32" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="72" t="e">
+      <c r="C32" s="70"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="78"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="72" t="e">
+      <c r="C33" s="70"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="78"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="75"/>
+      <c r="B34" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="72" t="e">
+      <c r="C34" s="70"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="78"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="75"/>
+      <c r="B35" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="72" t="e">
+      <c r="C35" s="70"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="78"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="78"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="75"/>
+      <c r="B36" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="72" t="e">
+      <c r="C36" s="70"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="78"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="68"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="35" t="s">
+      <c r="A37" s="75"/>
+      <c r="B37" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="72" t="e">
+      <c r="C37" s="70"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="78"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="68"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="35" t="s">
+      <c r="A38" s="75"/>
+      <c r="B38" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="72" t="e">
+      <c r="C38" s="70"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="78"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="78"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="68"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="32" t="s">
+      <c r="A39" s="75"/>
+      <c r="B39" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="72" t="e">
+      <c r="C39" s="70"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="78"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="68"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="75"/>
+      <c r="B40" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="62">
         <v>2500</v>
       </c>
-      <c r="E40" s="72">
+      <c r="E40" s="69">
         <f t="shared" si="0"/>
         <v>3.8439999999999998E-3</v>
       </c>
-      <c r="F40" s="78">
+      <c r="F40" s="68">
         <v>9.61</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="61">
         <v>2</v>
       </c>
-      <c r="H40" s="78">
+      <c r="H40" s="68">
         <f t="shared" si="1"/>
         <v>7.6879999999999995E-3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="75"/>
+      <c r="B41" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="72" t="e">
+      <c r="C41" s="70"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="78"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="68"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="32" t="s">
+      <c r="A42" s="75"/>
+      <c r="B42" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="62">
         <v>2500</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="69">
         <f t="shared" si="0"/>
         <v>5.0600000000000003E-3</v>
       </c>
-      <c r="F42" s="78">
+      <c r="F42" s="68">
         <v>12.65</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="61">
         <v>3</v>
       </c>
-      <c r="H42" s="78">
+      <c r="H42" s="68">
         <f t="shared" si="1"/>
         <v>1.5180000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="75"/>
+      <c r="B43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="72" t="e">
+      <c r="C43" s="70"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="78"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="33" t="s">
+      <c r="A44" s="77"/>
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="72" t="e">
+      <c r="C44" s="70"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="78"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="78"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="68"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="63">
         <v>1000</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="47">
         <f t="shared" si="0"/>
         <v>0.27200000000000002</v>
       </c>
-      <c r="F45" s="73">
+      <c r="F45" s="66">
         <v>272</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="61">
         <v>3</v>
       </c>
-      <c r="H45" s="73">
+      <c r="H45" s="66">
         <f t="shared" si="1"/>
         <v>0.81600000000000006</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="32" t="s">
+      <c r="A46" s="75"/>
+      <c r="B46" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="66" t="e">
+      <c r="C46" s="71"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="73"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="33" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="66" t="e">
+      <c r="C47" s="71"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="73"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="66"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="64">
         <v>1000</v>
       </c>
-      <c r="E48" s="66">
+      <c r="E48" s="47">
         <f t="shared" si="0"/>
         <v>0.19493000000000002</v>
       </c>
-      <c r="F48" s="73">
+      <c r="F48" s="66">
         <v>194.93</v>
       </c>
-      <c r="G48" s="50">
+      <c r="G48" s="48">
         <v>2</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="66">
         <f t="shared" si="1"/>
         <v>0.38986000000000004</v>
       </c>
@@ -2181,323 +2212,323 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="32" t="s">
+      <c r="A49" s="75"/>
+      <c r="B49" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="66" t="e">
+      <c r="C49" s="73"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="73"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="73"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="66"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="35" t="s">
+      <c r="A50" s="75"/>
+      <c r="B50" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="65">
         <v>2</v>
       </c>
-      <c r="E50" s="66">
+      <c r="E50" s="47">
         <f t="shared" si="0"/>
         <v>7.9950000000000001</v>
       </c>
-      <c r="F50" s="66">
+      <c r="F50" s="47">
         <v>15.99</v>
       </c>
-      <c r="G50" s="50">
+      <c r="G50" s="48">
         <v>2</v>
       </c>
-      <c r="H50" s="66">
+      <c r="H50" s="47">
         <f t="shared" si="1"/>
         <v>15.99</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="32" t="s">
+      <c r="A51" s="75"/>
+      <c r="B51" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="66" t="e">
+      <c r="C51" s="72"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="66"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="66"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="47"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="35" t="s">
+      <c r="A52" s="75"/>
+      <c r="B52" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="64">
         <v>5000</v>
       </c>
-      <c r="E52" s="66">
+      <c r="E52" s="47">
         <f t="shared" si="0"/>
         <v>0.15932000000000002</v>
       </c>
-      <c r="F52" s="73">
+      <c r="F52" s="66">
         <v>796.6</v>
       </c>
-      <c r="G52" s="50">
+      <c r="G52" s="48">
         <v>2</v>
       </c>
-      <c r="H52" s="73">
+      <c r="H52" s="66">
         <f t="shared" si="1"/>
         <v>0.31864000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="32" t="s">
+      <c r="A53" s="75"/>
+      <c r="B53" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="66" t="e">
+      <c r="C53" s="73"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F53" s="73"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="73"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="66"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="35" t="s">
+      <c r="A54" s="75"/>
+      <c r="B54" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="11">
         <v>1000</v>
       </c>
-      <c r="E54" s="67">
+      <c r="E54" s="41">
         <f t="shared" si="0"/>
         <v>0.10939</v>
       </c>
-      <c r="F54" s="74">
+      <c r="F54" s="43">
         <v>109.39</v>
       </c>
-      <c r="G54" s="42">
+      <c r="G54" s="30">
         <v>1</v>
       </c>
-      <c r="H54" s="74">
+      <c r="H54" s="43">
         <f t="shared" si="1"/>
         <v>0.10939</v>
       </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="35" t="s">
+      <c r="A55" s="75"/>
+      <c r="B55" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>1</v>
       </c>
-      <c r="E55" s="67">
+      <c r="E55" s="41">
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="F55" s="74">
+      <c r="F55" s="43">
         <v>4.95</v>
       </c>
-      <c r="G55" s="42">
+      <c r="G55" s="30">
         <v>1</v>
       </c>
-      <c r="H55" s="74">
+      <c r="H55" s="43">
         <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="35" t="s">
+      <c r="A56" s="75"/>
+      <c r="B56" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>1000</v>
       </c>
-      <c r="E56" s="67">
+      <c r="E56" s="41">
         <f t="shared" si="0"/>
         <v>2.3890000000000002E-2</v>
       </c>
-      <c r="F56" s="74">
+      <c r="F56" s="43">
         <v>23.89</v>
       </c>
-      <c r="G56" s="42">
+      <c r="G56" s="30">
         <v>1</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="43">
         <f t="shared" si="1"/>
         <v>2.3890000000000002E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="35" t="s">
+      <c r="A57" s="75"/>
+      <c r="B57" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>5000</v>
       </c>
-      <c r="E57" s="67">
+      <c r="E57" s="41">
         <f t="shared" si="0"/>
         <v>0.66879999999999995</v>
       </c>
-      <c r="F57" s="74">
+      <c r="F57" s="43">
         <v>3344</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="30">
         <v>1</v>
       </c>
-      <c r="H57" s="74">
+      <c r="H57" s="43">
         <f t="shared" si="1"/>
         <v>0.66879999999999995</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="35" t="s">
+      <c r="A58" s="75"/>
+      <c r="B58" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>1000</v>
       </c>
-      <c r="E58" s="67">
+      <c r="E58" s="41">
         <f t="shared" si="0"/>
         <v>0.32218999999999998</v>
       </c>
-      <c r="F58" s="74">
+      <c r="F58" s="43">
         <v>322.19</v>
       </c>
-      <c r="G58" s="42">
+      <c r="G58" s="30">
         <v>1</v>
       </c>
-      <c r="H58" s="74">
+      <c r="H58" s="43">
         <f t="shared" si="1"/>
         <v>0.32218999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="32" t="s">
+      <c r="A59" s="75"/>
+      <c r="B59" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>1000</v>
       </c>
-      <c r="E59" s="67">
+      <c r="E59" s="41">
         <f t="shared" si="0"/>
         <v>3.245E-2</v>
       </c>
-      <c r="F59" s="74">
+      <c r="F59" s="43">
         <v>32.450000000000003</v>
       </c>
-      <c r="G59" s="42">
+      <c r="G59" s="30">
         <v>1</v>
       </c>
-      <c r="H59" s="74">
+      <c r="H59" s="43">
         <f t="shared" si="1"/>
         <v>3.245E-2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="32" t="s">
+      <c r="A60" s="75"/>
+      <c r="B60" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <v>100</v>
       </c>
-      <c r="E60" s="67">
+      <c r="E60" s="41">
         <f t="shared" si="0"/>
         <v>0.99970000000000003</v>
       </c>
-      <c r="F60" s="74">
+      <c r="F60" s="43">
         <v>99.97</v>
       </c>
-      <c r="G60" s="42">
+      <c r="G60" s="30">
         <v>1</v>
       </c>
-      <c r="H60" s="74">
+      <c r="H60" s="43">
         <f t="shared" si="1"/>
         <v>0.99970000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="37" t="s">
+      <c r="A61" s="77"/>
+      <c r="B61" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>5000</v>
       </c>
-      <c r="E61" s="67">
+      <c r="E61" s="41">
         <f t="shared" si="0"/>
         <v>0.31724999999999998</v>
       </c>
-      <c r="F61" s="74">
+      <c r="F61" s="43">
         <v>1586.25</v>
       </c>
-      <c r="G61" s="42">
+      <c r="G61" s="30">
         <v>1</v>
       </c>
-      <c r="H61" s="74">
+      <c r="H61" s="43">
         <f t="shared" si="1"/>
         <v>0.31724999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="64"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="68" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="64"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="8"/>
+      <c r="C68" s="39"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="7"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -2507,12 +2538,12 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="64"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="8"/>
+      <c r="C69" s="39"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="7"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -2522,12 +2553,12 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="64"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="8"/>
+      <c r="C70" s="39"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="7"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -2537,14 +2568,14 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="64"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="8"/>
+      <c r="C71" s="39"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="7"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2554,14 +2585,14 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="8"/>
+      <c r="C72" s="39"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="7"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -2577,42 +2608,117 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C78" s="65" t="s">
+      <c r="C78" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D78" s="18"/>
+      <c r="D78" s="17"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C79" s="65" t="s">
+      <c r="C79" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D79" s="18"/>
+      <c r="D79" s="17"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="65" t="s">
+      <c r="C80" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D80" s="18"/>
+      <c r="D80" s="17"/>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="65" t="s">
+      <c r="C81" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="18"/>
+      <c r="D81" s="17"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="22"/>
+      <c r="B140" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A25:A44"/>
+    <mergeCell ref="A48:A61"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F39"/>
+    <mergeCell ref="H29:H39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D39"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="C10:C15"/>
@@ -2629,81 +2735,6 @@
     <mergeCell ref="D42:D44"/>
     <mergeCell ref="D45:D47"/>
     <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D39"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F39"/>
-    <mergeCell ref="H29:H39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="C29:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A25:A44"/>
-    <mergeCell ref="A48:A61"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C80" r:id="rId1"/>
